--- a/operation/checklist.xlsx
+++ b/operation/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD769FE-5E03-7243-A948-69C897A4F771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A98A2-9184-F046-8D1B-13B7FFED3BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E5BC677E-52F1-8543-961D-AD974E873CCF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>year</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Vol. 19</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>periodical</t>
   </si>
 </sst>
 </file>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1890D801-DFCB-0D4B-97F7-78688C48AD7C}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +549,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +565,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1983</v>
       </c>
@@ -573,8 +582,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1983</v>
       </c>
@@ -587,8 +599,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1983</v>
       </c>
@@ -601,8 +616,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1984</v>
       </c>
@@ -615,8 +633,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1984</v>
       </c>
@@ -629,8 +650,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1984</v>
       </c>
@@ -643,8 +667,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1984</v>
       </c>
@@ -657,8 +684,11 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1985</v>
       </c>
@@ -671,8 +701,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -685,8 +718,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1985</v>
       </c>
@@ -699,8 +735,11 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1985</v>
       </c>
@@ -713,8 +752,11 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1986</v>
       </c>
@@ -727,8 +769,11 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1986</v>
       </c>
@@ -741,8 +786,11 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1986</v>
       </c>
@@ -755,8 +803,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1986</v>
       </c>
@@ -769,8 +820,11 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1987</v>
       </c>
@@ -783,8 +837,11 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1987</v>
       </c>
@@ -797,8 +854,11 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1987</v>
       </c>
@@ -811,8 +871,11 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1987</v>
       </c>
@@ -824,6 +887,9 @@
       </c>
       <c r="E20" t="s">
         <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
